--- a/Unit-1 Part B.xlsx
+++ b/Unit-1 Part B.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
   <si>
     <t>C314.5</t>
   </si>
@@ -22,13 +22,49 @@
     <t>K3</t>
   </si>
   <si>
-    <t>User ‘A’ in delhi wishes to send a file for printing to user ‘B’ in florida, whose system is connected to a printer; while user ‘C’ from tokyo wants to save a video file in the hard disk of user ‘D’ in london. Model the required peer-to-peer network architecture.(15)</t>
-  </si>
-  <si>
-    <t>Explain a formal proof to justify the correctness of algorithm that construct sequential consistency using local read operations.(15)</t>
-  </si>
-  <si>
-    <t>Develop a detailed implementation of causal consistency, and provide a correctness argument for your implementation.(15)</t>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>K4</t>
+  </si>
+  <si>
+    <t>K1</t>
+  </si>
+  <si>
+    <t>User ‘A’ in delhi wishes to send a file for printing to user ‘B’ in florida, whose system is connected to a printer; while user ‘C’ from tokyo wants to save a video file in the hard disk of user ‘D’ in london. Model the required peer-to-peer network architecture.(8)</t>
+  </si>
+  <si>
+    <t>Develop a detailed implementation of causal consistency, and provide a correctness argument for your implementation.(8)</t>
+  </si>
+  <si>
+    <t>Explain a formal proof to justify the correctness of algorithm that construct sequential consistency using local read operations.(8)</t>
+  </si>
+  <si>
+    <t>Explain the concept of distributed systems and discuss the advantages and challenges associated with them.(8)</t>
+  </si>
+  <si>
+    <t>What is the role of middleware in a distributed system? Describe some common middleware technologies used in distributed systems.(8)</t>
+  </si>
+  <si>
+    <t>Discuss the client-server architecture in the context of distributed systems. Explain the responsibilities of the client and server components.(8)</t>
+  </si>
+  <si>
+    <t>What is the difference between synchronous and asynchronous communication in distributed systems? Provide examples of each.(8)</t>
+  </si>
+  <si>
+    <t>Describe the different types of distributed system architectures, such as peer-to-peer, client-server, and hybrid architectures. Compare and contrast their characteristics.(8)</t>
+  </si>
+  <si>
+    <t>Explain the concept of fault tolerance in distributed systems. Discuss various techniques used to achieve fault tolerance, such as replication and redundancy.(8)</t>
+  </si>
+  <si>
+    <t>What is distributed file system? Discuss the design principles and features of a distributed file system.(8)</t>
+  </si>
+  <si>
+    <t>Describe the challenges of data consistency in distributed systems. Explain the concepts of eventual consistency and strong consistency.(8)</t>
+  </si>
+  <si>
+    <t>Discuss the role of distributed transactions in ensuring data integrity across multiple distributed components. Explain the ACID properties and their significance in distributed transactions.(8)</t>
   </si>
 </sst>
 </file>
@@ -370,16 +406,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="124.7109375" customWidth="1"/>
+    <col min="2" max="2" width="171.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -387,7 +423,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -401,7 +437,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -415,12 +451,138 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
         <v>0</v>
       </c>
     </row>
